--- a/Raspberry/test1.xlsx
+++ b/Raspberry/test1.xlsx
@@ -348,162 +348,162 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>6.138775510204082</v>
+        <v>4.322355804728814</v>
       </c>
       <c r="B1">
-        <v>4.287074829931973</v>
+        <v>1.871432855567677</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5.483582089552239</v>
+        <v>3.802049804884101</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1.701584416363059</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5.697674418604651</v>
+        <v>3.753479129631129</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1.525239861113449</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5.661070304302204</v>
+        <v>2.566607204746272</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1.507929444235946</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5.589090909090908</v>
+        <v>4.370314600699114</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1.787254638343641</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5.523690773067332</v>
+        <v>4.059491600511484</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1.998709966668408</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6.033953997809419</v>
+        <v>4.027897144505896</v>
       </c>
       <c r="B7">
-        <v>4.322015334063527</v>
+        <v>1.736070065717511</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5.654205607476636</v>
+        <v>4.110739120061356</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1.637237384375566</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5.362116991643455</v>
+        <v>2.854665885008794</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1.434168365605887</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5.654205607476636</v>
+        <v>2.636725142549296</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1.399720914701102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5.510948905109489</v>
+        <v>2.892438234163185</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1.396914489121838</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5.343661971830986</v>
+        <v>2.952883809552231</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>1.429540034628713</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>6.02250803858521</v>
+        <v>3.664552451385107</v>
       </c>
       <c r="B13">
-        <v>4.32583065380493</v>
+        <v>1.516496592067202</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>6.052095130237826</v>
+        <v>4.370314600699114</v>
       </c>
       <c r="B14">
-        <v>4.315968289920725</v>
+        <v>1.787254638343641</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5.869613259668507</v>
+        <v>4.0294236044898</v>
       </c>
       <c r="B15">
-        <v>4.376795580110498</v>
+        <v>1.998633237598766</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>6.016149068322981</v>
+        <v>3.162482936694568</v>
       </c>
       <c r="B16">
-        <v>4.327950310559006</v>
+        <v>1.377414567285246</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6.092345078979343</v>
+        <v>3.905637001784724</v>
       </c>
       <c r="B17">
-        <v>4.302551640340218</v>
+        <v>1.75511235194914</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5.98604187437687</v>
+        <v>3.69899751491894</v>
       </c>
       <c r="B18">
-        <v>4.337986041874377</v>
+        <v>1.518114859362367</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5.91027027027027</v>
+        <v>3.703183375071659</v>
       </c>
       <c r="B19">
-        <v>4.363243243243243</v>
+        <v>1.698131259352609</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6.029299363057325</v>
+        <v>3.08207986875328</v>
       </c>
       <c r="B20">
-        <v>4.323566878980892</v>
+        <v>1.347358725656116</v>
       </c>
     </row>
   </sheetData>
